--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.7853742162</v>
+        <v>509053.5413884828</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572563.744829689</v>
+        <v>5572563.744829688</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>135.4132168533396</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87.11878864677688</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>167.3034271440628</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1610,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.93311775391584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>218.2545356023572</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>61.7785655194015</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>18.82206244933327</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23.81301614990503</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>6.817411324556116</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,43 +2490,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,55 +2572,55 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>111.1751113141405</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>75.98437144330408</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33.66226958370693</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>132.6009592528876</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>63.14223173826442</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>196.3521222307628</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.6846781620519925</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>104.3704036188475</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>216.6999729388017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>150.4149128677507</v>
+        <v>149.6683215414929</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>14.34556017490553</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>284.1276524520142</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M3" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M3" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.9965798960495</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5364,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>251.810259228364</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5729,19 +5731,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5780,10 +5782,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.6807332628614</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="C21" t="n">
-        <v>361.6807332628614</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="D21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,10 +5843,10 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X21" t="n">
-        <v>569.4410320278153</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.6807332628614</v>
+        <v>82.43786719673733</v>
       </c>
     </row>
     <row r="22">
@@ -5926,28 +5928,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>359.8579014620034</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>185.4048721808764</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6104,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,13 +6259,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
         <v>262.7299197543128</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,22 +6332,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6418,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
         <v>158.0119685275972</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>930.0548630018413</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>756.6375184525102</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>554.4509238112762</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>326.2273055476653</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>326.2273055476653</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>326.2273055476653</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>326.2273055476653</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>326.2273055476653</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>601.5428246748836</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>601.5428246748836</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>601.5428246748836</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.5428246748836</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>726.8597789024521</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>498.6361606388412</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>263.4840524070985</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>456.7918502977974</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>664.5521490627514</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>664.5521490627514</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>664.5521490627514</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>664.5521490627514</v>
       </c>
       <c r="X36" t="n">
-        <v>660.0094373192052</v>
+        <v>664.5521490627514</v>
       </c>
       <c r="Y36" t="n">
-        <v>452.2491385542513</v>
+        <v>456.7918502977974</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
         <v>304.2053859195205</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="40">
@@ -7366,10 +7368,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V41" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V41" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7467,25 +7469,25 @@
         <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7499,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>640.636862475431</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>848.397161240385</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>640.636862475431</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7837,7 +7839,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22547,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D2" t="n">
-        <v>333.4992862499586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>275.3266899823874</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.29528213497613</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22923,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23103,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>60.32627691786188</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>65.4971600053625</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23498,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.3048209021377</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9120779467108</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>130.9864331150558</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>147.7031912398178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>85.66650004523726</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>186.9509227541442</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>315.6617859658621</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>140.6276542400826</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24342,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>117.6460565997561</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>121.6254758352848</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>96.72412754501165</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>66.4955645689362</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>137.0224969565572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25202,25 +25204,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.812606464058774</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.0883070414255</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>68.33809536946828</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>16.10061421062358</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25606,13 +25608,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,13 +25684,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>22.29358612056504</v>
+        <v>23.04017744682287</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,19 +25918,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>191.4274250285719</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,10 +26079,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.437145366</v>
@@ -26320,7 +26322,7 @@
         <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
         <v>108004.4371453661</v>
@@ -26329,16 +26331,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26353,7 +26355,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26439,10 +26441,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26454,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
         <v>8547.111069342402</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928574</v>
+        <v>-29593.37421928576</v>
       </c>
       <c r="C6" t="n">
         <v>51176.05731226195</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.057312262</v>
+        <v>51176.05731226199</v>
       </c>
       <c r="E6" t="n">
+        <v>84803.65731226196</v>
+      </c>
+      <c r="F6" t="n">
         <v>84803.65731226199</v>
       </c>
-      <c r="F6" t="n">
-        <v>84803.657312262</v>
-      </c>
       <c r="G6" t="n">
-        <v>84803.65731226197</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="H6" t="n">
-        <v>84803.657312262</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="I6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="J6" t="n">
-        <v>21743.71471315574</v>
+        <v>21743.71471315576</v>
       </c>
       <c r="K6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226199</v>
       </c>
       <c r="L6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="M6" t="n">
+        <v>84803.65731226196</v>
+      </c>
+      <c r="N6" t="n">
         <v>84803.65731226197</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>84803.65731226194</v>
       </c>
-      <c r="O6" t="n">
-        <v>84803.65731226197</v>
-      </c>
       <c r="P6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226196</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>91.0829537758999</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
